--- a/Excel/test.xlsx
+++ b/Excel/test.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="19">
   <si>
     <t>URL</t>
   </si>
@@ -445,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,4 +588,544 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>